--- a/MainTop/WB_A4_demand2.xlsx
+++ b/MainTop/WB_A4_demand2.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -392,7 +391,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D13:D14"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,30 +727,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D13:D14 C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/MainTop/WB_A4_demand2.xlsx
+++ b/MainTop/WB_A4_demand2.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,7 +568,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/MainTop/WB_A4_demand2.xlsx
+++ b/MainTop/WB_A4_demand2.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,6 +603,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <f aca="false">SUM(C2:C24)</f>
+        <v>64</v>
+      </c>
+    </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="2"/>
     </row>
